--- a/Avwap_Tarama_251225.xlsx
+++ b/Avwap_Tarama_251225.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Hisse</t>
   </si>
@@ -97,13 +97,7 @@
     <t>Aşağı Kırılım(L3)</t>
   </si>
   <si>
-    <t>Yukarı Kırılım(L3)</t>
-  </si>
-  <si>
     <t>DOWN</t>
-  </si>
-  <si>
-    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
         <v>5.45</v>
       </c>
       <c r="E2">
-        <v>38.4</v>
+        <v>39.55</v>
       </c>
       <c r="F2">
         <v>43.66</v>
@@ -546,13 +540,13 @@
         <v>11.65</v>
       </c>
       <c r="M2">
-        <v>12.27</v>
+        <v>12.26</v>
       </c>
       <c r="N2">
         <v>12.44</v>
       </c>
       <c r="O2">
-        <v>11.62</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -563,16 +557,16 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>28.92</v>
+        <v>28.96</v>
       </c>
       <c r="D3">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="E3">
-        <v>-38.6</v>
+        <v>-35.54</v>
       </c>
       <c r="F3">
-        <v>43.24</v>
+        <v>43.66</v>
       </c>
       <c r="G3">
         <v>-0.12</v>
@@ -604,16 +598,16 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>99.05</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="E4">
-        <v>-59.42</v>
+        <v>-59.16</v>
       </c>
       <c r="F4">
-        <v>39.26</v>
+        <v>39.09</v>
       </c>
       <c r="G4">
         <v>-0.16</v>
@@ -645,19 +639,19 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="E5">
-        <v>-45.6</v>
+        <v>-31.09</v>
       </c>
       <c r="F5">
-        <v>44.59</v>
+        <v>47.25</v>
       </c>
       <c r="G5">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="J5">
         <v>34.64</v>
@@ -686,16 +680,16 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="D6">
-        <v>-1.19</v>
+        <v>-0.6</v>
       </c>
       <c r="E6">
-        <v>-64.16</v>
+        <v>-62.22</v>
       </c>
       <c r="F6">
-        <v>37.97</v>
+        <v>38.35</v>
       </c>
       <c r="G6">
         <v>0.05</v>
@@ -727,16 +721,16 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>45.76</v>
+        <v>45.72</v>
       </c>
       <c r="D7">
-        <v>-0.82</v>
+        <v>-0.91</v>
       </c>
       <c r="E7">
-        <v>-63.52</v>
+        <v>-63.01</v>
       </c>
       <c r="F7">
-        <v>47.64</v>
+        <v>47.48</v>
       </c>
       <c r="G7">
         <v>0.09</v>
@@ -745,7 +739,7 @@
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7">
         <v>48.77</v>
@@ -763,7 +757,7 @@
         <v>46.67</v>
       </c>
       <c r="O7">
-        <v>45.83</v>
+        <v>45.82</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -774,19 +768,19 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>15.76</v>
+        <v>15.84</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.76</v>
       </c>
       <c r="E8">
-        <v>-77.95</v>
+        <v>-73.15000000000001</v>
       </c>
       <c r="F8">
-        <v>48.54</v>
+        <v>49.86</v>
       </c>
       <c r="G8">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="J8">
         <v>14.94</v>
@@ -815,25 +809,19 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>13.28</v>
+        <v>13.26</v>
       </c>
       <c r="D9">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="E9">
-        <v>-65.08</v>
+        <v>-63.86</v>
       </c>
       <c r="F9">
-        <v>51.98</v>
+        <v>51.04</v>
       </c>
       <c r="G9">
-        <v>-0.02</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
+        <v>-0.03</v>
       </c>
       <c r="J9">
         <v>13.1</v>
@@ -862,19 +850,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>221.7</v>
+        <v>221.8</v>
       </c>
       <c r="D10">
-        <v>-1.55</v>
+        <v>-1.51</v>
       </c>
       <c r="E10">
-        <v>-59.07</v>
+        <v>-58.4</v>
       </c>
       <c r="F10">
-        <v>60.18</v>
+        <v>60.32</v>
       </c>
       <c r="G10">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="J10">
         <v>186.01</v>
@@ -892,7 +880,7 @@
         <v>196.77</v>
       </c>
       <c r="O10">
-        <v>217.08</v>
+        <v>217.09</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -903,16 +891,16 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>28.52</v>
+        <v>28.5</v>
       </c>
       <c r="D11">
-        <v>-0.28</v>
+        <v>-0.35</v>
       </c>
       <c r="E11">
-        <v>-79.39</v>
+        <v>-78.39</v>
       </c>
       <c r="F11">
-        <v>49.25</v>
+        <v>49.05</v>
       </c>
       <c r="G11">
         <v>-0.2</v>

--- a/Avwap_Tarama_251225.xlsx
+++ b/Avwap_Tarama_251225.xlsx
@@ -516,16 +516,16 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>11.23</v>
+        <v>11.2</v>
       </c>
       <c r="D2">
-        <v>5.45</v>
+        <v>5.16</v>
       </c>
       <c r="E2">
-        <v>39.55</v>
+        <v>40.15</v>
       </c>
       <c r="F2">
-        <v>43.66</v>
+        <v>43.13</v>
       </c>
       <c r="G2">
         <v>-0.07000000000000001</v>
@@ -537,7 +537,7 @@
         <v>12.38</v>
       </c>
       <c r="L2">
-        <v>11.65</v>
+        <v>11.64</v>
       </c>
       <c r="M2">
         <v>12.26</v>
@@ -557,16 +557,16 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>28.96</v>
+        <v>28.9</v>
       </c>
       <c r="D3">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="E3">
-        <v>-35.54</v>
+        <v>-35.22</v>
       </c>
       <c r="F3">
-        <v>43.66</v>
+        <v>43.04</v>
       </c>
       <c r="G3">
         <v>-0.12</v>
@@ -578,7 +578,7 @@
         <v>30.52</v>
       </c>
       <c r="L3">
-        <v>29.63</v>
+        <v>29.62</v>
       </c>
       <c r="M3">
         <v>30.48</v>
@@ -598,22 +598,22 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D4">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E4">
-        <v>-59.16</v>
+        <v>-57.63</v>
       </c>
       <c r="F4">
-        <v>39.09</v>
+        <v>39.44</v>
       </c>
       <c r="G4">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="J4">
-        <v>114.39</v>
+        <v>114.38</v>
       </c>
       <c r="K4">
         <v>106.97</v>
@@ -639,19 +639,19 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>30.86</v>
       </c>
       <c r="D5">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="E5">
-        <v>-31.09</v>
+        <v>-30.79</v>
       </c>
       <c r="F5">
-        <v>47.25</v>
+        <v>46.04</v>
       </c>
       <c r="G5">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="J5">
         <v>34.64</v>
@@ -660,7 +660,7 @@
         <v>32.75</v>
       </c>
       <c r="L5">
-        <v>32.09</v>
+        <v>32.08</v>
       </c>
       <c r="M5">
         <v>34.11</v>
@@ -680,16 +680,16 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="D6">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-62.22</v>
+        <v>-60.97</v>
       </c>
       <c r="F6">
-        <v>38.35</v>
+        <v>38.74</v>
       </c>
       <c r="G6">
         <v>0.05</v>
@@ -721,19 +721,19 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>45.72</v>
+        <v>45.6</v>
       </c>
       <c r="D7">
-        <v>-0.91</v>
+        <v>-1.17</v>
       </c>
       <c r="E7">
-        <v>-63.01</v>
+        <v>-62.41</v>
       </c>
       <c r="F7">
-        <v>47.48</v>
+        <v>47</v>
       </c>
       <c r="G7">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -768,16 +768,16 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>15.84</v>
+        <v>15.81</v>
       </c>
       <c r="D8">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="E8">
-        <v>-73.15000000000001</v>
+        <v>-72.31</v>
       </c>
       <c r="F8">
-        <v>49.86</v>
+        <v>49.37</v>
       </c>
       <c r="G8">
         <v>-0.12</v>
@@ -815,7 +815,7 @@
         <v>0.45</v>
       </c>
       <c r="E9">
-        <v>-63.86</v>
+        <v>-63.72</v>
       </c>
       <c r="F9">
         <v>51.04</v>
@@ -850,19 +850,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>221.8</v>
+        <v>221.7</v>
       </c>
       <c r="D10">
-        <v>-1.51</v>
+        <v>-1.55</v>
       </c>
       <c r="E10">
-        <v>-58.4</v>
+        <v>-58.29</v>
       </c>
       <c r="F10">
-        <v>60.32</v>
+        <v>60.18</v>
       </c>
       <c r="G10">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="J10">
         <v>186.01</v>
@@ -880,7 +880,7 @@
         <v>196.77</v>
       </c>
       <c r="O10">
-        <v>217.09</v>
+        <v>217.08</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -891,16 +891,16 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>28.5</v>
+        <v>28.48</v>
       </c>
       <c r="D11">
-        <v>-0.35</v>
+        <v>-0.42</v>
       </c>
       <c r="E11">
-        <v>-78.39</v>
+        <v>-78.15000000000001</v>
       </c>
       <c r="F11">
-        <v>49.05</v>
+        <v>48.85</v>
       </c>
       <c r="G11">
         <v>-0.2</v>

--- a/Avwap_Tarama_251225.xlsx
+++ b/Avwap_Tarama_251225.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Hisse</t>
   </si>
@@ -97,7 +97,13 @@
     <t>Aşağı Kırılım(L3)</t>
   </si>
   <si>
+    <t>Yukarı Kırılım(L3)</t>
+  </si>
+  <si>
     <t>DOWN</t>
+  </si>
+  <si>
+    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -516,19 +522,19 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>11.2</v>
+        <v>11.18</v>
       </c>
       <c r="D2">
-        <v>5.16</v>
+        <v>4.98</v>
       </c>
       <c r="E2">
-        <v>40.15</v>
+        <v>40.76</v>
       </c>
       <c r="F2">
-        <v>43.13</v>
+        <v>42.78</v>
       </c>
       <c r="G2">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="J2">
         <v>12.6</v>
@@ -557,16 +563,16 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>28.9</v>
+        <v>28.92</v>
       </c>
       <c r="D3">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="E3">
-        <v>-35.22</v>
+        <v>-35.2</v>
       </c>
       <c r="F3">
-        <v>43.04</v>
+        <v>43.24</v>
       </c>
       <c r="G3">
         <v>-0.12</v>
@@ -578,7 +584,7 @@
         <v>30.52</v>
       </c>
       <c r="L3">
-        <v>29.62</v>
+        <v>29.63</v>
       </c>
       <c r="M3">
         <v>30.48</v>
@@ -598,19 +604,19 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="E4">
-        <v>-57.63</v>
+        <v>-56.79</v>
       </c>
       <c r="F4">
-        <v>39.44</v>
+        <v>39.09</v>
       </c>
       <c r="G4">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="J4">
         <v>114.38</v>
@@ -628,7 +634,7 @@
         <v>107.38</v>
       </c>
       <c r="O4">
-        <v>102.41</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -686,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-60.97</v>
+        <v>-60.38</v>
       </c>
       <c r="F6">
         <v>38.74</v>
@@ -721,16 +727,16 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>45.6</v>
+        <v>45.52</v>
       </c>
       <c r="D7">
-        <v>-1.17</v>
+        <v>-1.34</v>
       </c>
       <c r="E7">
-        <v>-62.41</v>
+        <v>-61.33</v>
       </c>
       <c r="F7">
-        <v>47</v>
+        <v>46.69</v>
       </c>
       <c r="G7">
         <v>0.08</v>
@@ -739,7 +745,7 @@
         <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7">
         <v>48.77</v>
@@ -768,16 +774,16 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>15.81</v>
+        <v>15.8</v>
       </c>
       <c r="D8">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="E8">
-        <v>-72.31</v>
+        <v>-72.01000000000001</v>
       </c>
       <c r="F8">
-        <v>49.37</v>
+        <v>49.21</v>
       </c>
       <c r="G8">
         <v>-0.12</v>
@@ -809,19 +815,25 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>13.26</v>
+        <v>13.28</v>
       </c>
       <c r="D9">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="E9">
-        <v>-63.72</v>
+        <v>-63.41</v>
       </c>
       <c r="F9">
-        <v>51.04</v>
+        <v>51.98</v>
       </c>
       <c r="G9">
-        <v>-0.03</v>
+        <v>-0.02</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
       </c>
       <c r="J9">
         <v>13.1</v>
@@ -856,7 +868,7 @@
         <v>-1.55</v>
       </c>
       <c r="E10">
-        <v>-58.29</v>
+        <v>-58.13</v>
       </c>
       <c r="F10">
         <v>60.18</v>
@@ -891,16 +903,16 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>28.48</v>
+        <v>28.5</v>
       </c>
       <c r="D11">
-        <v>-0.42</v>
+        <v>-0.35</v>
       </c>
       <c r="E11">
-        <v>-78.15000000000001</v>
+        <v>-77.92</v>
       </c>
       <c r="F11">
-        <v>48.85</v>
+        <v>49.05</v>
       </c>
       <c r="G11">
         <v>-0.2</v>

--- a/Avwap_Tarama_251225.xlsx
+++ b/Avwap_Tarama_251225.xlsx
@@ -522,16 +522,16 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>11.18</v>
+        <v>11.17</v>
       </c>
       <c r="D2">
-        <v>4.98</v>
+        <v>4.88</v>
       </c>
       <c r="E2">
-        <v>40.76</v>
+        <v>41.01</v>
       </c>
       <c r="F2">
-        <v>42.78</v>
+        <v>42.6</v>
       </c>
       <c r="G2">
         <v>-0.08</v>
@@ -563,16 +563,16 @@
         <v>25</v>
       </c>
       <c r="C3">
-        <v>28.92</v>
+        <v>28.94</v>
       </c>
       <c r="D3">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="E3">
-        <v>-35.2</v>
+        <v>-35.06</v>
       </c>
       <c r="F3">
-        <v>43.24</v>
+        <v>43.45</v>
       </c>
       <c r="G3">
         <v>-0.12</v>
@@ -645,37 +645,37 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>30.86</v>
+        <v>30.8</v>
       </c>
       <c r="D5">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="E5">
-        <v>-30.79</v>
+        <v>0.63</v>
       </c>
       <c r="F5">
-        <v>46.04</v>
+        <v>45.51</v>
       </c>
       <c r="G5">
         <v>-0.11</v>
       </c>
       <c r="J5">
-        <v>34.64</v>
+        <v>34.63</v>
       </c>
       <c r="K5">
-        <v>32.75</v>
+        <v>32.74</v>
       </c>
       <c r="L5">
-        <v>32.08</v>
+        <v>32.07</v>
       </c>
       <c r="M5">
         <v>34.11</v>
       </c>
       <c r="N5">
-        <v>32.22</v>
+        <v>32.21</v>
       </c>
       <c r="O5">
-        <v>32.97</v>
+        <v>32.96</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -686,16 +686,16 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="E6">
-        <v>-60.38</v>
+        <v>-60.11</v>
       </c>
       <c r="F6">
-        <v>38.74</v>
+        <v>38.35</v>
       </c>
       <c r="G6">
         <v>0.05</v>
@@ -727,16 +727,16 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>45.52</v>
+        <v>45.56</v>
       </c>
       <c r="D7">
-        <v>-1.34</v>
+        <v>-1.26</v>
       </c>
       <c r="E7">
-        <v>-61.33</v>
+        <v>-61.31</v>
       </c>
       <c r="F7">
-        <v>46.69</v>
+        <v>46.85</v>
       </c>
       <c r="G7">
         <v>0.08</v>
@@ -774,16 +774,16 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>15.8</v>
+        <v>15.79</v>
       </c>
       <c r="D8">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="E8">
-        <v>-72.01000000000001</v>
+        <v>-71.79000000000001</v>
       </c>
       <c r="F8">
-        <v>49.21</v>
+        <v>49.04</v>
       </c>
       <c r="G8">
         <v>-0.12</v>
@@ -821,7 +821,7 @@
         <v>0.61</v>
       </c>
       <c r="E9">
-        <v>-63.41</v>
+        <v>-63.35</v>
       </c>
       <c r="F9">
         <v>51.98</v>
@@ -868,7 +868,7 @@
         <v>-1.55</v>
       </c>
       <c r="E10">
-        <v>-58.13</v>
+        <v>-58.12</v>
       </c>
       <c r="F10">
         <v>60.18</v>
@@ -903,16 +903,16 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>28.5</v>
+        <v>28.46</v>
       </c>
       <c r="D11">
-        <v>-0.35</v>
+        <v>-0.49</v>
       </c>
       <c r="E11">
-        <v>-77.92</v>
+        <v>-77.86</v>
       </c>
       <c r="F11">
-        <v>49.05</v>
+        <v>48.65</v>
       </c>
       <c r="G11">
         <v>-0.2</v>

--- a/Avwap_Tarama_251225.xlsx
+++ b/Avwap_Tarama_251225.xlsx
@@ -528,7 +528,7 @@
         <v>4.88</v>
       </c>
       <c r="E2">
-        <v>41.01</v>
+        <v>41.5</v>
       </c>
       <c r="F2">
         <v>42.6</v>
@@ -645,19 +645,19 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="D5">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="E5">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="F5">
-        <v>45.51</v>
+        <v>44.59</v>
       </c>
       <c r="G5">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="J5">
         <v>34.63</v>
@@ -686,16 +686,16 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="D6">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-60.11</v>
+        <v>-60.04</v>
       </c>
       <c r="F6">
-        <v>38.35</v>
+        <v>38.74</v>
       </c>
       <c r="G6">
         <v>0.05</v>
@@ -774,16 +774,16 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>15.79</v>
+        <v>15.8</v>
       </c>
       <c r="D8">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="E8">
-        <v>-71.79000000000001</v>
+        <v>-71.77</v>
       </c>
       <c r="F8">
-        <v>49.04</v>
+        <v>49.21</v>
       </c>
       <c r="G8">
         <v>-0.12</v>
@@ -868,7 +868,7 @@
         <v>-1.55</v>
       </c>
       <c r="E10">
-        <v>-58.12</v>
+        <v>-58.11</v>
       </c>
       <c r="F10">
         <v>60.18</v>
@@ -909,7 +909,7 @@
         <v>-0.49</v>
       </c>
       <c r="E11">
-        <v>-77.86</v>
+        <v>-77.76000000000001</v>
       </c>
       <c r="F11">
         <v>48.65</v>
